--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>866245.4723939692</v>
+        <v>863516.7291081846</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10367347.96096031</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673421</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11627365.79527014</v>
+        <v>11627365.79527013</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>164.1848310523649</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>108.8640957525906</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>207.2096032800586</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>215.0393446428039</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>4.252601227923032</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>30.38695912484681</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>153.4113347831755</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>143.6052641270672</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>276.8403937252092</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>2.894145444111284</v>
+        <v>3.171820953554247</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.0543222645812</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035081</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009512</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034028</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>135.8932770845456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6388439349721</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754663</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119253</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>198.2748219194654</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569556</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576158</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986289</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833727</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>141.3831318262959</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569556</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F22" t="n">
-        <v>140.5758943588605</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.9399954524506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>30.97191586387613</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189068</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>120.0312718434585</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>140.9144183062129</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>191.6099304363187</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="F43" t="n">
-        <v>33.55293486399934</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.14614278817983</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.698544874887</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1111.432846268137</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1111.432846268137</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>700.4469414785294</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>416.7115874010917</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1268.68094731003</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1268.68094731003</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>496.5252400791543</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.535689181137</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.535689181137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1483.636752640286</v>
+        <v>1710.685703078436</v>
       </c>
       <c r="C8" t="n">
-        <v>1483.636752640286</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="D8" t="n">
-        <v>1125.371054033535</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>739.582801435291</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>328.5968966456834</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
         <v>173.6359524202537</v>
@@ -4802,16 +4802,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>297.0690422295933</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.87116617148</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1857.102510901366</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.636752640286</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.636752640286</v>
+        <v>1741.379601184342</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>396.0456706731709</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>900.4072105392895</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1079.904546893894</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.5564137352271</v>
+        <v>363.7633394282103</v>
       </c>
       <c r="C10" t="n">
-        <v>519.5564137352271</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="D10" t="n">
-        <v>369.4397743228914</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="E10" t="n">
-        <v>369.4397743228914</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>774.240901941114</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="V10" t="n">
-        <v>519.5564137352271</v>
+        <v>591.7528903262277</v>
       </c>
       <c r="W10" t="n">
-        <v>519.5564137352271</v>
+        <v>591.7528903262277</v>
       </c>
       <c r="X10" t="n">
-        <v>519.5564137352271</v>
+        <v>363.7633394282103</v>
       </c>
       <c r="Y10" t="n">
-        <v>519.5564137352271</v>
+        <v>363.7633394282103</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1634.224011468291</v>
+        <v>1535.258832689352</v>
       </c>
       <c r="C11" t="n">
-        <v>1265.261494527879</v>
+        <v>1166.296315748941</v>
       </c>
       <c r="D11" t="n">
-        <v>906.9957959211288</v>
+        <v>808.0306171421903</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846526</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>493.086511895045</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469202</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469202</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420332</v>
+        <v>704.5155104420321</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301228</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878114</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765431</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687108</v>
+        <v>3070.226377687103</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856291</v>
+        <v>3535.048359856285</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388225</v>
+        <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234601</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234601</v>
+        <v>3826.588132455662</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750381</v>
+        <v>3622.786021971442</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382989</v>
+        <v>3369.295305604051</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039418</v>
+        <v>3038.23241826048</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769304</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.963183508225</v>
+        <v>2311.998004729286</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.823851532413</v>
+        <v>1921.858672753474</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503049</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792134</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376516</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843849</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282754</v>
+        <v>977.3905023848067</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279343</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145093</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.9882200193193</v>
+        <v>203.8650582458548</v>
       </c>
       <c r="C13" t="n">
-        <v>614.0520370914124</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="D13" t="n">
-        <v>463.9353976790767</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="E13" t="n">
-        <v>316.0223040966836</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="F13" t="n">
-        <v>169.1323565987732</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987732</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987732</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600405</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457712</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288893</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715852</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551108</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551108</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101154</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.004279541443</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.319791335556</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.902621298595</v>
+        <v>834.2956531176419</v>
       </c>
       <c r="X13" t="n">
-        <v>964.6366848495591</v>
+        <v>606.3061022196246</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.6366848495591</v>
+        <v>385.5135230760944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957688</v>
@@ -5294,34 +5294,34 @@
         <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="L15" t="n">
-        <v>688.5165197074529</v>
+        <v>525.8973588994251</v>
       </c>
       <c r="M15" t="n">
-        <v>1280.534873959581</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N15" t="n">
-        <v>1902.630837358917</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937878</v>
+        <v>175.0061676818304</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113945</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134843</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880632</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.927986250648</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.927986250648</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.243498044761</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.8263280078</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192552</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.19258031117</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075958</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.6115533324</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301479</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355945</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068016</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5577,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.463305575626</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468455</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962603</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589153</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143758</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235159</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.5067842581</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.5067842581</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052213</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819414</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111862</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075943</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014788</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,37 +5814,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703861</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969362</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951541</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190827</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434656</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>701.0383482155587</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D22" t="n">
-        <v>550.9217088032228</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E22" t="n">
-        <v>403.0086152208298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235159</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.5067842581</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.5067842581</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052213</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015253</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117235</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973705</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,40 +6051,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452672</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.528408326422</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565708</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536382</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257313</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133955</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580255</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235159</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.5067842581</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602298</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602298</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565337</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.02483666732</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.23225752379</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6394,19 +6394,19 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6424,10 +6424,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.0966395286528</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,10 +6783,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557276</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278207</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>408.9258559154849</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330918</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330918</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859673</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -7017,25 +7017,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7342,10 +7342,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2598873597751</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309957</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>943.5102657467545</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836018</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C43" t="n">
-        <v>734.6461798836018</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D43" t="n">
-        <v>584.529540471266</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E43" t="n">
-        <v>436.6164468888729</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138415</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7643,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597623</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597623</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597623</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597623</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8225,10 +8225,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>368.1017737596992</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>157.4097144773271</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>378.0407240669644</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9164,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.836042429204099e-11</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-1.23494598786039e-12</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.77635683940025e-11</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>379.0362246281505</v>
+        <v>378.7585491187075</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806771</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203237996</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114084</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767662</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146324</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>89.81637830449156</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.29152613728968</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>19.20717254329641</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.4596884482319</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892397</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>145.1398665102951</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F22" t="n">
-        <v>4.845153664070779</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.89198472948672</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012194</v>
+        <v>46.45968844823061</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>136.2749052347517</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856708</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>98.55338150863629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>34.09972495271842</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="F43" t="n">
-        <v>111.8681131589319</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038569</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>907773.2403199048</v>
+        <v>907773.2403199038</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>988162.2719766871</v>
+        <v>988162.2719766868</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993634.1363403567</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>993634.1363403562</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>993634.1363403565</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787483</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713454</v>
+        <v>386954.437971345</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099663</v>
+        <v>421406.8801099661</v>
       </c>
       <c r="G2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="H2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="I2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="J2" t="n">
         <v>423751.9648372531</v>
-      </c>
-      <c r="H2" t="n">
-        <v>423751.9648372529</v>
-      </c>
-      <c r="I2" t="n">
-        <v>423751.964837253</v>
-      </c>
-      <c r="J2" t="n">
-        <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372532</v>
@@ -26350,10 +26350,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>588754.3687919694</v>
+        <v>588754.368791967</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051359</v>
+        <v>166521.3471051378</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557639</v>
+        <v>11167.23623557922</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925953</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>76530.81132370059</v>
+        <v>76530.81132370008</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848864</v>
+        <v>43782.40655848903</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224847</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5578.415609376702</v>
+        <v>5578.415609376701</v>
       </c>
       <c r="F4" t="n">
         <v>5671.003945457393</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566683037</v>
+        <v>5677.53656668272</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682743</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566683028</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="N4" t="n">
+        <v>5677.536566682747</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682736</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214729</v>
+        <v>86093.72216214713</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26525,43 +26525,43 @@
         <v>138265.435652306</v>
       </c>
       <c r="D6" t="n">
-        <v>-17538.37044148933</v>
+        <v>-17538.37044148936</v>
       </c>
       <c r="E6" t="n">
-        <v>-293472.0685921479</v>
+        <v>-293682.0328359907</v>
       </c>
       <c r="F6" t="n">
-        <v>149072.4005455345</v>
+        <v>149026.4955499669</v>
       </c>
       <c r="G6" t="n">
-        <v>305784.6622110866</v>
+        <v>305749.9242856484</v>
       </c>
       <c r="H6" t="n">
-        <v>316951.898446663</v>
+        <v>316917.1605212277</v>
       </c>
       <c r="I6" t="n">
-        <v>316951.8984466629</v>
+        <v>316917.1605212278</v>
       </c>
       <c r="J6" t="n">
-        <v>140528.6792540681</v>
+        <v>140493.9413286346</v>
       </c>
       <c r="K6" t="n">
-        <v>316951.8984466633</v>
+        <v>316917.1605212276</v>
       </c>
       <c r="L6" t="n">
-        <v>316951.8984466632</v>
+        <v>316917.1605212276</v>
       </c>
       <c r="M6" t="n">
-        <v>240421.0871229627</v>
+        <v>240386.3491975276</v>
       </c>
       <c r="N6" t="n">
-        <v>273169.4918881746</v>
+        <v>273134.7539627386</v>
       </c>
       <c r="O6" t="n">
-        <v>313928.6004694385</v>
+        <v>313893.8625440029</v>
       </c>
       <c r="P6" t="n">
-        <v>316951.8984466633</v>
+        <v>316917.1605212275</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494558</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086502</v>
+        <v>981.3883278086481</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>618.6941671564929</v>
+        <v>618.6941671564908</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218279</v>
+        <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625284737</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>307.1010550540946</v>
+        <v>307.1010550540925</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173568</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364188</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540946</v>
+        <v>307.1010550540925</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173568</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540946</v>
+        <v>307.1010550540925</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173568</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>249.5993389684301</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>24.62049154535643</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179779</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>206.5745667407363</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>154.6917560356652</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>282.270397108668</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>352.3468825386337</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>259.5055691627613</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>23.64155697156068</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>9.4202609328878</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.622262584148937e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>3.096538101309494e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>4.479488779907115e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.670300996855332e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.548983163957018e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485656</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508999</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.868117538026</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307186</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726066</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216984</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857439</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.50983418984</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294421</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615148</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895596</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356986</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475347</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188524</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191526</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596492</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783045</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202561</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735442</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784534</v>
+        <v>219.8517740430757</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147151</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743182</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205479</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071851</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697594</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780659</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190413</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236088</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737178</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691801</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619745</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509181</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263714</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.49937889731</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050064</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.37234817619</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570625</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929618</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826919</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>257.2899072204474</v>
+        <v>574.9651909908055</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162541</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292897</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659443</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521093</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862103</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565832</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121565</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162541</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292897</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659443</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521093</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.285322933828</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862103</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485282</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121565</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963342</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071767</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,7 +33974,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>147.4873481937407</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>556.6870392399089</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>225.7004414100109</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>559.3511648291915</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040323</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427626</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517112</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584712</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932492</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077553</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062452</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151101</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156649</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116378</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458971</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693670026</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625157</v>
+        <v>77.71774012105745</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313818</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987375</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062176</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211636</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701864</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360917</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112342</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788212</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765385</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190461</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410835</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998386</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>118.7355274405733</v>
+        <v>436.4108112109312</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367938</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902926</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674315</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764192</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121387</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462669</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902926</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315395379</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764192</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992783</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902574</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.34878191646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238434</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992783</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37321,13 +37321,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37622,7 +37622,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>20.64972152707399</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
